--- a/testData/哈利波特与魔法石.xlsx
+++ b/testData/哈利波特与魔法石.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="141">
   <si>
     <t>单词</t>
   </si>
@@ -482,6 +482,757 @@
   </si>
   <si>
     <t>否定词+比较级=最⾼级，没有更好的</t>
+  </si>
+  <si>
+    <r>
+      <t>《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Harry Potter and the Sorcerer‘s Stone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Chapter 1 The Boy Who Lived</t>
+    </r>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>《Harry Potter and the Sorcerer‘s Stone》Chapter 1 The Boy Who Lived</t>
+  </si>
+  <si>
+    <t>The Dursleys had everything they wanted, but they also had a secret, and their greatest fear was that
+somebody would discover it.</t>
+  </si>
+  <si>
+    <r>
+      <t>德思礼⼀家什么都不缺，但他们拥有⼀个秘密，他们最害怕的就是这秘密会被⼈发现。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>they don't think they cloud bear it</t>
+  </si>
+  <si>
+    <t>否定前移，更加委婉，他们认为他们无法承受</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They didn't think they could bear it if anyone found out about the Potters. </t>
+  </si>
+  <si>
+    <t>他们想，⼀旦有⼈发现波特⼀家的事，他们会承受不住的。</t>
+  </si>
+  <si>
+    <t>find out(about sth/sb)</t>
+  </si>
+  <si>
+    <r>
+      <t>获得⼀些关于某事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>某⼈的信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>good-for-nothing</t>
+  </si>
+  <si>
+    <r>
+      <t>n.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>没用的⼈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">
+adj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>⼀⽆是处的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs. Potter was Mrs. Dursley's sister, but they hadn't met for several years; in fact, Mrs. Dursley
+pretended she didn't have a sister, because her sister and her good-for-nothing husband were as unDursleyish
+as it was possible to be.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">德思礼太太佯装自⼰根本没
+有这么个妹妹，因为她妹妹和她那⼀⽆是处的妹夫与德思礼⼀家的为⼈处世完全不⼀样。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> she's a good-for-nothing.</t>
+  </si>
+  <si>
+    <t>她是个懒⾍。</t>
+  </si>
+  <si>
+    <t>as soon as possible</t>
+  </si>
+  <si>
+    <r>
+      <t>尽快，加强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> soon </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>语气，等价于 as soon as it os possible</t>
+    </r>
+  </si>
+  <si>
+    <t>keep sb away</t>
+  </si>
+  <si>
+    <t>保持与某人距离</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This boy was another good reason for keeping the Potters away.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>这孩⼦也是他们不与波特夫妇来往的⼀个很好的借⼝。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>mix with sb</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>与某⼈交往</t>
+    </r>
+  </si>
+  <si>
+    <t>They didn't want Dudley mixing with a child like that.</t>
+  </si>
+  <si>
+    <t>他们不愿让达⼒跟这种孩⼦厮混。</t>
+  </si>
+  <si>
+    <t>wake/woke up</t>
+  </si>
+  <si>
+    <t>醒来</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Mr. and Mrs. Dursley woke up on the dull, gray Tuesday our story starts, there was nothing about
+the cloudy sky outside to suggest that strange and mysterious things would soon be happening all over the
+country. </t>
+  </si>
+  <si>
+    <t>我们的故事开始于⼀个晦暗、阴沉的星期⼆。德思礼夫妇⼀早醒来，窗外浓云低垂的天空并没有丝毫迹象预示这地⽅即将发⽣神秘古怪的事情。</t>
+  </si>
+  <si>
+    <t>see/hear/notice/watch + object + infinitive</t>
+  </si>
+  <si>
+    <t>看到某⼈做了某事；</t>
+  </si>
+  <si>
+    <t>《Harry Potter and the Sorcerer‘s Stone》Chapter 2 The Boy Who Lived</t>
+  </si>
+  <si>
+    <t>None of them noticed a large, tawny owl flutter past the window.</t>
+  </si>
+  <si>
+    <t>他们谁也没留意⼀只黄褐⾊的猫头鹰扑扇着翅膀从窗前飞过。</t>
+  </si>
+  <si>
+    <t>pick up</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>拿起</t>
+    </r>
+  </si>
+  <si>
+    <t>《Harry Potter and the Sorcerer‘s Stone》Chapter 3 The Boy Who Lived</t>
+  </si>
+  <si>
+    <t>At half past eight, Mr. Dursley picked up his briefcase, pecked Mrs. Dursley on the cheek, and tried to kiss
+Dudley good-bye but missed, because Dudley was now having a tantrum and throwing his cereal at the walls.</t>
+  </si>
+  <si>
+    <r>
+      <t>⼋点半，德思礼先⽣拿起公⽂包，在德思礼太太面颊上亲了⼀下，正要亲达⼒，跟这个小家伙道别，可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>是没有亲成，小家伙正在发脾⽓，把麦片往墙上摔。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>try to do sth</t>
+  </si>
+  <si>
+    <t>试图做某事</t>
+  </si>
+  <si>
+    <t>《Harry Potter and the Sorcerer‘s Stone》Chapter 4 The Boy Who Lived</t>
+  </si>
+  <si>
+    <t>kiss sb goodbye</t>
+  </si>
+  <si>
+    <t>与某人道别</t>
+  </si>
+  <si>
+    <t>《Harry Potter and the Sorcerer‘s Stone》Chapter 5 The Boy Who Lived</t>
+  </si>
+  <si>
+    <t>back out</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>倒车</t>
+    </r>
+  </si>
+  <si>
+    <t>《Harry Potter and the Sorcerer‘s Stone》Chapter 6 The Boy Who Lived</t>
+  </si>
+  <si>
+    <t>He got into his car and backed out of number four's drive.</t>
+  </si>
+  <si>
+    <r>
+      <t>坐进汽车，倒出四号车道。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>for a second</t>
+  </si>
+  <si>
+    <t>极短的时间</t>
+  </si>
+  <si>
+    <t>《Harry Potter and the Sorcerer‘s Stone》Chapter 7 The Boy Who Lived</t>
+  </si>
+  <si>
+    <t>For a second, Mr. Dursley didn't realize what he had seen -- then he jerked his head around to look again.</t>
+  </si>
+  <si>
+    <r>
+      <t>⼀开始，德思礼先⽣还没弄明白他看到了什么，于是又回过头去。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>there be sb/sth doing sth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有…正在做某事；存在句的常用形式。 </t>
+  </si>
+  <si>
+    <t>《Harry Potter and the Sorcerer‘s Stone》Chapter 8 The Boy Who Lived</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There was a tabby cat standing on the corner of Privet Drive, but
+there wasn't a map in sight.
+</t>
+  </si>
+  <si>
+    <r>
+      <t>只见⼀只花斑猫站在⼥贞路路⼝，但是没有看见地图。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>in sight</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> visible </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>看得见的</t>
+    </r>
+  </si>
+  <si>
+    <t>《Harry Potter and the Sorcerer‘s Stone》Chapter 9 The Boy Who Lived</t>
+  </si>
+  <si>
+    <t>a trick of the light</t>
+  </si>
+  <si>
+    <r>
+      <t>这是⼀个短语，经常出现在歌词和小说中，因为⾜够唯美抽象。如果你说某事是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>光的把戏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>，你是在表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>示这个东西实际上不存在的，只是幻觉罢了。</t>
+    </r>
+  </si>
+  <si>
+    <t>《Harry Potter and the Sorcerer‘s Stone》Chapter 10 The Boy Who Lived</t>
+  </si>
+  <si>
+    <t>It must be a trick of the light.</t>
+  </si>
+  <si>
+    <t>很可能是光线使他产⽣了错觉吧。</t>
+  </si>
+  <si>
+    <t>drove around… up…</t>
+  </si>
+  <si>
+    <r>
+      <t>前者表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>转弯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>后者表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>沿相同⽅向前进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>”</t>
+    </r>
+  </si>
+  <si>
+    <t>《Harry Potter and the Sorcerer‘s Stone》Chapter 11 The Boy Who Lived</t>
+  </si>
+  <si>
+    <t>As Mr. Dursley drove around the corner and up the road, he watched the
+cat in his mirror.</t>
+  </si>
+  <si>
+    <r>
+      <t>当德思礼先⽣拐过街角继续上路的时候，他从后视镜里看看那只猫。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>put sth out of your mind</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>不去想某事</t>
+    </r>
+  </si>
+  <si>
+    <t>《Harry Potter and the Sorcerer‘s Stone》Chapter 12 The Boy Who Lived</t>
+  </si>
+  <si>
+    <t>Mr. Dursley gave himself a little shake and put the cat out of his mind.</t>
+  </si>
+  <si>
+    <r>
+      <t>德思礼先⽣定了定神，把猫从脑海里赶⾛。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>think of/about</t>
+  </si>
+  <si>
+    <r>
+      <t>思考，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">“of” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>没有深度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>, “about”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>有深度</t>
+    </r>
+  </si>
+  <si>
+    <t>《Harry Potter and the Sorcerer‘s Stone》Chapter 13 The Boy Who Lived</t>
+  </si>
+  <si>
+    <t>As he drove toward town he thought of nothing except a large order of drills he was hoping to get that
+day.</t>
+  </si>
+  <si>
+    <r>
+      <t>他开车进城，⼀路上想的是希望今天他能得到⼀⼤批钻机的定单。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>nothing except</t>
+  </si>
+  <si>
+    <r>
+      <t>跟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">nothing but </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>是⼀样的，都是除了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>没有，即</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>仅仅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>的意思</t>
+    </r>
+  </si>
+  <si>
+    <t>《Harry Potter and the Sorcerer‘s Stone》Chapter 14 The Boy Who Lived</t>
   </si>
 </sst>
 </file>
@@ -494,7 +1245,7 @@
     <numFmt numFmtId="176" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(\$* #,##0_);_(\$* \(#,##0\);_(\$* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -515,6 +1266,51 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <u/>
@@ -1004,137 +1800,137 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1154,6 +1950,42 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1700,8 +2532,8 @@
   <sheetPr/>
   <dimension ref="A1:Q128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2"/>
@@ -1765,8 +2597,8 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2" ht="90" spans="1:14">
       <c r="A2" s="2" t="s">
@@ -2175,7 +3007,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>47</v>
@@ -2194,14 +3026,22 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" ht="15.6" spans="1:17">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="2"/>
+    <row r="15" ht="204" spans="1:17">
+      <c r="A15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2213,14 +3053,24 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" ht="15.6" spans="1:17">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="2"/>
+    <row r="16" ht="84.6" spans="1:17">
+      <c r="A16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2232,14 +3082,24 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" ht="15.6" spans="1:17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="2"/>
+    <row r="17" ht="84.6" spans="1:17">
+      <c r="A17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2251,18 +3111,32 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" ht="15.6" spans="1:17">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="2"/>
+    <row r="18" ht="409.5" spans="1:17">
+      <c r="A18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2270,15 +3144,18 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" ht="15.6" spans="1:17">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+    <row r="19" ht="40.8" spans="1:17">
+      <c r="A19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -2289,14 +3166,24 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" ht="15.6" spans="1:17">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="2"/>
+    <row r="20" ht="197.4" spans="1:17">
+      <c r="A20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2308,14 +3195,24 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" ht="15.6" spans="1:17">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="2"/>
+    <row r="21" ht="141" spans="1:17">
+      <c r="A21" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2327,14 +3224,24 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" ht="15.6" spans="1:17">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="2"/>
+    <row r="22" ht="409.5" spans="1:17">
+      <c r="A22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2346,14 +3253,24 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" ht="15.6" spans="1:17">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="2"/>
+    <row r="23" ht="225.6" spans="1:17">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2365,14 +3282,24 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" ht="15.6" spans="1:17">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="2"/>
+    <row r="24" ht="409.5" spans="1:17">
+      <c r="A24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2384,14 +3311,24 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" ht="15.6" spans="1:17">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="2"/>
+    <row r="25" ht="409.5" spans="1:17">
+      <c r="A25" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2403,14 +3340,24 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" ht="15.6" spans="1:17">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="2"/>
+    <row r="26" ht="409.5" spans="1:17">
+      <c r="A26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2422,14 +3369,24 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" ht="15.6" spans="1:17">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="2"/>
+    <row r="27" ht="169.2" spans="1:17">
+      <c r="A27" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2441,14 +3398,24 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" ht="15.6" spans="1:17">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="2"/>
+    <row r="28" ht="338.4" spans="1:17">
+      <c r="A28" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2460,14 +3427,24 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" ht="15.6" spans="1:17">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="2"/>
+    <row r="29" ht="310.2" spans="1:17">
+      <c r="A29" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2479,14 +3456,24 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" ht="15.6" spans="1:17">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="2"/>
+    <row r="30" ht="310.2" spans="1:17">
+      <c r="A30" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2498,14 +3485,24 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" ht="15.6" spans="1:17">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="2"/>
+    <row r="31" ht="169.2" spans="1:17">
+      <c r="A31" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2517,14 +3514,24 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
-    <row r="32" ht="15.6" spans="1:17">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="2"/>
+    <row r="32" ht="282" spans="1:17">
+      <c r="A32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2536,14 +3543,24 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" ht="15.6" spans="1:17">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="2"/>
+    <row r="33" ht="180.6" spans="1:17">
+      <c r="A33" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>132</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2555,15 +3572,25 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" ht="15" spans="1:17">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+    <row r="34" ht="276" spans="1:17">
+      <c r="A34" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" s="10"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -2574,15 +3601,25 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" ht="15" spans="1:17">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+    <row r="35" ht="276" spans="1:17">
+      <c r="A35" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" s="10"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -2593,15 +3630,15 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" ht="15" spans="1:17">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+    <row r="36" ht="27.6" spans="1:17">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -2612,15 +3649,15 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" ht="15" spans="1:17">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+    <row r="37" ht="27.6" spans="1:17">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -2631,15 +3668,15 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" ht="15" spans="1:17">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+    <row r="38" ht="27.6" spans="1:17">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -2650,15 +3687,15 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" ht="15" spans="1:17">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+    <row r="39" ht="27.6" spans="1:17">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -2669,15 +3706,15 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" ht="15" spans="1:17">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+    <row r="40" ht="27.6" spans="1:17">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -2688,15 +3725,15 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" ht="15" spans="1:17">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+    <row r="41" ht="27.6" spans="1:17">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -2707,15 +3744,15 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" ht="15" spans="1:17">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+    <row r="42" ht="27.6" spans="1:17">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -2726,15 +3763,15 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" ht="15" spans="1:17">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+    <row r="43" ht="27.6" spans="1:17">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -2745,15 +3782,15 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" ht="15" spans="1:17">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+    <row r="44" ht="27.6" spans="1:17">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -2764,15 +3801,15 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" ht="15" spans="1:17">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+    <row r="45" ht="27.6" spans="1:17">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -2783,15 +3820,15 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" ht="15" spans="1:17">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+    <row r="46" ht="27.6" spans="1:17">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -2802,15 +3839,15 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" ht="15" spans="1:17">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+    <row r="47" ht="27.6" spans="1:17">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -2821,15 +3858,15 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" ht="15" spans="1:17">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+    <row r="48" ht="27.6" spans="1:17">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -2840,15 +3877,15 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" ht="15" spans="1:17">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+    <row r="49" ht="27.6" spans="1:17">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
